--- a/public/templates/Product_KPI_Dashboard.xlsx
+++ b/public/templates/Product_KPI_Dashboard.xlsx
@@ -524,7 +524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
-          <t>Artificial Intelligence and Machine Learning KPI Dashboard - User Guide &amp; Instructions</t>
+          <t>Product Development KPI Dashboard - User Guide &amp; Instructions</t>
         </is>
       </c>
     </row>
@@ -587,6 +587,7 @@
         </is>
       </c>
     </row>
+    <row r="9"/>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
         <is>
@@ -654,6 +655,7 @@
         </is>
       </c>
     </row>
+    <row r="16"/>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
         <is>
@@ -754,7 +756,7 @@
       </c>
       <c r="B23" s="7" t="inlineStr">
         <is>
-          <t>Availability and reliability of AI systems</t>
+          <t>Availability and reliability of Product systems</t>
         </is>
       </c>
       <c r="C23" s="7" t="inlineStr">
@@ -780,6 +782,7 @@
         </is>
       </c>
     </row>
+    <row r="25"/>
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
@@ -829,6 +832,7 @@
         </is>
       </c>
     </row>
+    <row r="33"/>
     <row r="34">
       <c r="A34" s="6" t="inlineStr">
         <is>
@@ -917,6 +921,7 @@
         </is>
       </c>
     </row>
+    <row r="40"/>
     <row r="41">
       <c r="A41" s="6" t="inlineStr">
         <is>
@@ -1009,6 +1014,7 @@
         </is>
       </c>
     </row>
+    <row r="47"/>
     <row r="48">
       <c r="A48" s="6" t="inlineStr">
         <is>
@@ -1065,6 +1071,8 @@
         </is>
       </c>
     </row>
+    <row r="56"/>
+    <row r="57"/>
     <row r="58">
       <c r="A58" s="6" t="inlineStr">
         <is>
@@ -1168,14 +1176,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ARTIFICIAL INTELLIGENCE AND MACHINE LEARNING - KPI DASHBOARD</t>
+          <t>PRODUCT DEVELOPMENT - KPI DASHBOARD</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Project: AI/ML Implementation</t>
+          <t>Project: Product Development Implementation</t>
         </is>
       </c>
     </row>
@@ -1193,6 +1201,7 @@
         </is>
       </c>
     </row>
+    <row r="5"/>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
@@ -1306,7 +1315,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Product Development success</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1368,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Product Development success</t>
         </is>
       </c>
     </row>
@@ -1402,7 +1411,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>ML Engineers</t>
+          <t>Product Engineers</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1412,7 +1421,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Product Development success</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1474,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Product Development success</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1527,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Product Development success</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1580,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Product Development success</t>
         </is>
       </c>
     </row>
@@ -1624,7 +1633,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Product Development success</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1686,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Product Development success</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1729,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>ML Engineers</t>
+          <t>Product Engineers</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1730,7 +1739,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Product Development success</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1792,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Product Development success</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1845,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Product Development success</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1898,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Product Development success</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1951,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Product Development success</t>
         </is>
       </c>
     </row>
@@ -1995,7 +2004,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Product Development success</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2047,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>ML Engineers</t>
+          <t>Product Engineers</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2048,7 +2057,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Product Development success</t>
         </is>
       </c>
     </row>
